--- a/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{358BCAB8-E173-460C-8069-B5F395521174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F53DB778-7CD9-4EEA-9E5F-D4A8B4B35FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94866E4B-1816-41A2-96D9-C047C26E82BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBFB41C0-8D8D-4153-8C34-C67FD198D210}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,07%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,25 +104,25 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>6,44%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -131,28 +131,28 @@
     <t>23,19%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -161,28 +161,28 @@
     <t>73,76%</t>
   </si>
   <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,490 +194,496 @@
     <t>3,53%</t>
   </si>
   <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>28,16%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>61,84%</t>
@@ -686,25 +692,25 @@
     <t>59,86%</t>
   </si>
   <si>
-    <t>64,16%</t>
+    <t>64,28%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1119,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDB7610-1765-42EB-9BEC-21F305EF0A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0457B9-C2A1-4852-A864-BB3AF88AA50B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1521,7 +1527,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>56</v>
@@ -1530,13 +1536,13 @@
         <v>39541</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1557,13 @@
         <v>37219</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -1566,13 +1572,13 @@
         <v>53055</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -1581,13 +1587,13 @@
         <v>90274</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1608,13 @@
         <v>154238</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>370</v>
@@ -1775,10 +1781,10 @@
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -1787,13 +1793,13 @@
         <v>57193</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,10 +1814,10 @@
         <v>52828</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>97</v>
@@ -2068,10 +2074,10 @@
         <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -2080,13 +2086,13 @@
         <v>56791</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -2095,13 +2101,13 @@
         <v>94918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2122,13 @@
         <v>200008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>322</v>
@@ -2131,13 +2137,13 @@
         <v>339459</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>510</v>
@@ -2146,13 +2152,13 @@
         <v>539468</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2173,13 @@
         <v>474118</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>631</v>
@@ -2182,13 +2188,13 @@
         <v>460699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>1063</v>
@@ -2197,13 +2203,13 @@
         <v>934817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2265,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2277,13 @@
         <v>21532</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2286,13 +2292,13 @@
         <v>35002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -2301,13 +2307,13 @@
         <v>56534</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2328,13 @@
         <v>65120</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -2337,13 +2343,13 @@
         <v>99691</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -2352,13 +2358,13 @@
         <v>164812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,10 +2379,10 @@
         <v>314752</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>174</v>
@@ -2561,10 +2567,10 @@
         <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2585,13 @@
         <v>194831</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>476</v>
@@ -2594,13 +2600,13 @@
         <v>315068</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>699</v>
@@ -2609,13 +2615,13 @@
         <v>509899</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2636,13 @@
         <v>1018225</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="H31" s="7">
         <v>1934</v>
@@ -2645,28 +2651,28 @@
         <v>1422328</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>3022</v>
       </c>
       <c r="N31" s="7">
-        <v>2440554</v>
+        <v>2440553</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2687,13 @@
         <v>2087559</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>2762</v>
@@ -2696,13 +2702,13 @@
         <v>1948495</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>4734</v>
@@ -2711,13 +2717,13 @@
         <v>4036054</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2765,7 @@
         <v>8713</v>
       </c>
       <c r="N33" s="7">
-        <v>7172505</v>
+        <v>7172504</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>49</v>
@@ -2773,7 +2779,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F53DB778-7CD9-4EEA-9E5F-D4A8B4B35FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDA2A41-2284-4B22-A3C3-F10440794BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBFB41C0-8D8D-4153-8C34-C67FD198D210}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEEE5F24-B173-4D57-BA77-9DF448BCE6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
@@ -188,7 +188,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -296,7 +296,7 @@
     <t>59,3%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,8%</t>
@@ -404,7 +404,7 @@
     <t>58,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0457B9-C2A1-4852-A864-BB3AF88AA50B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5842E7E-49D0-46A6-ACEF-BBCACE78E03A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDA2A41-2284-4B22-A3C3-F10440794BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5444BE-9C53-43E9-B020-F04D2B2F56F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEEE5F24-B173-4D57-BA77-9DF448BCE6B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECD44436-CDBD-44ED-A137-7EF4621FBA06}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,07%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,586 +104,580 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>6,44%</t>
+    <t>6,62%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>28,16%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>61,84%</t>
@@ -692,25 +686,25 @@
     <t>59,86%</t>
   </si>
   <si>
-    <t>64,28%</t>
+    <t>64,16%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1125,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5842E7E-49D0-46A6-ACEF-BBCACE78E03A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ABD946-DFD5-40E9-837E-1D6A4D390051}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1527,7 +1521,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>56</v>
@@ -1536,13 +1530,13 @@
         <v>39541</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1551,13 @@
         <v>37219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -1572,13 +1566,13 @@
         <v>53055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -1587,13 +1581,13 @@
         <v>90274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1602,13 @@
         <v>154238</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>370</v>
@@ -1781,10 +1775,10 @@
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -1793,13 +1787,13 @@
         <v>57193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,10 +1808,10 @@
         <v>52828</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>97</v>
@@ -2074,10 +2068,10 @@
         <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -2086,13 +2080,13 @@
         <v>56791</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -2101,13 +2095,13 @@
         <v>94918</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2116,13 @@
         <v>200008</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>322</v>
@@ -2137,13 +2131,13 @@
         <v>339459</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>510</v>
@@ -2152,13 +2146,13 @@
         <v>539468</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2167,13 @@
         <v>474118</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>631</v>
@@ -2188,13 +2182,13 @@
         <v>460699</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>1063</v>
@@ -2203,13 +2197,13 @@
         <v>934817</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,7 +2259,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2271,13 @@
         <v>21532</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2292,13 +2286,13 @@
         <v>35002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -2307,13 +2301,13 @@
         <v>56534</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2322,13 @@
         <v>65120</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -2343,13 +2337,13 @@
         <v>99691</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -2358,13 +2352,13 @@
         <v>164812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,10 +2373,10 @@
         <v>314752</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>174</v>
@@ -2567,10 +2561,10 @@
         <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2579,13 @@
         <v>194831</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="H30" s="7">
         <v>476</v>
@@ -2600,13 +2594,13 @@
         <v>315068</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>699</v>
@@ -2615,13 +2609,13 @@
         <v>509899</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2630,13 @@
         <v>1018225</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>1934</v>
@@ -2651,28 +2645,28 @@
         <v>1422328</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>3022</v>
       </c>
       <c r="N31" s="7">
-        <v>2440553</v>
+        <v>2440554</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2681,13 @@
         <v>2087559</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>2762</v>
@@ -2702,13 +2696,13 @@
         <v>1948495</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>4734</v>
@@ -2717,13 +2711,13 @@
         <v>4036054</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2759,7 @@
         <v>8713</v>
       </c>
       <c r="N33" s="7">
-        <v>7172504</v>
+        <v>7172505</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>49</v>
@@ -2779,7 +2773,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5444BE-9C53-43E9-B020-F04D2B2F56F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5119A81B-A35D-4970-A9DC-E469378E5DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECD44436-CDBD-44ED-A137-7EF4621FBA06}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{774F9635-0E1B-4EA0-835E-941CEF0BA1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -65,646 +65,553 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>35,14%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1119,8 +1026,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ABD946-DFD5-40E9-837E-1D6A4D390051}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A248D5E-1DC1-45FB-BC41-7D1E93008EFF}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1237,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>1549</v>
+        <v>18766</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1252,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>1834</v>
+        <v>19621</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1267,10 +1174,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>3383</v>
+        <v>38387</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1288,151 +1195,151 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>1537</v>
+        <v>36032</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>7422</v>
+        <v>55233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="N5" s="7">
-        <v>8959</v>
+        <v>91265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>214</v>
+      </c>
+      <c r="D6" s="7">
+        <v>164795</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7">
-        <v>23503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>443</v>
       </c>
       <c r="I6" s="7">
-        <v>34751</v>
+        <v>225024</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>106</v>
+        <v>657</v>
       </c>
       <c r="N6" s="7">
-        <v>58254</v>
+        <v>389818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="D7" s="7">
-        <v>74760</v>
+        <v>413531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>148</v>
+        <v>640</v>
       </c>
       <c r="I7" s="7">
-        <v>86350</v>
+        <v>372745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1082</v>
       </c>
       <c r="N7" s="7">
-        <v>161111</v>
+        <v>786276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,102 +1348,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>727</v>
       </c>
       <c r="D8" s="7">
-        <v>101349</v>
+        <v>633124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>242</v>
+        <v>1233</v>
       </c>
       <c r="I8" s="7">
-        <v>130357</v>
+        <v>672622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>359</v>
+        <v>1960</v>
       </c>
       <c r="N8" s="7">
-        <v>231707</v>
+        <v>1305746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>19338</v>
+        <v>17614</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>20203</v>
+        <v>34405</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N9" s="7">
-        <v>39541</v>
+        <v>52020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,13 +1452,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>37219</v>
+        <v>47192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>61</v>
@@ -1560,10 +1467,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="I10" s="7">
-        <v>53055</v>
+        <v>85510</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1575,46 +1482,46 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="N10" s="7">
-        <v>90274</v>
+        <v>132702</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="D11" s="7">
-        <v>154238</v>
+        <v>297331</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H11" s="7">
-        <v>370</v>
+        <v>578</v>
       </c>
       <c r="I11" s="7">
-        <v>209783</v>
+        <v>356027</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1626,10 +1533,10 @@
         <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>551</v>
+        <v>917</v>
       </c>
       <c r="N11" s="7">
-        <v>364020</v>
+        <v>653358</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1644,13 +1551,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>362</v>
+        <v>540</v>
       </c>
       <c r="D12" s="7">
-        <v>337072</v>
+        <v>828512</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -1662,10 +1569,10 @@
         <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>492</v>
+        <v>723</v>
       </c>
       <c r="I12" s="7">
-        <v>306974</v>
+        <v>479944</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -1677,10 +1584,10 @@
         <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>854</v>
+        <v>1263</v>
       </c>
       <c r="N12" s="7">
-        <v>644046</v>
+        <v>1308456</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>83</v>
@@ -1698,49 +1605,49 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>610</v>
+        <v>962</v>
       </c>
       <c r="D13" s="7">
-        <v>547866</v>
+        <v>1190649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>991</v>
+        <v>1511</v>
       </c>
       <c r="I13" s="7">
-        <v>590015</v>
+        <v>955887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1601</v>
+        <v>2473</v>
       </c>
       <c r="N13" s="7">
-        <v>1137881</v>
+        <v>2146536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,10 +1658,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>18646</v>
+        <v>12951</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1766,10 +1673,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>38548</v>
+        <v>13484</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1781,10 +1688,10 @@
         <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>57193</v>
+        <v>26435</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1793,7 +1700,7 @@
         <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,25 +1709,25 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7">
-        <v>52828</v>
+        <v>35058</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H15" s="7">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="I15" s="7">
-        <v>98109</v>
+        <v>50198</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>98</v>
@@ -1832,10 +1739,10 @@
         <v>100</v>
       </c>
       <c r="M15" s="7">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="N15" s="7">
-        <v>150937</v>
+        <v>85255</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>101</v>
@@ -1850,13 +1757,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>339</v>
+        <v>188</v>
       </c>
       <c r="D16" s="7">
-        <v>325725</v>
+        <v>189447</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -1868,10 +1775,10 @@
         <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>578</v>
+        <v>322</v>
       </c>
       <c r="I16" s="7">
-        <v>401788</v>
+        <v>414899</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
@@ -1883,10 +1790,10 @@
         <v>109</v>
       </c>
       <c r="M16" s="7">
-        <v>917</v>
+        <v>510</v>
       </c>
       <c r="N16" s="7">
-        <v>727513</v>
+        <v>604346</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>110</v>
@@ -1901,13 +1808,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>540</v>
+        <v>432</v>
       </c>
       <c r="D17" s="7">
-        <v>639682</v>
+        <v>465019</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>113</v>
@@ -1919,10 +1826,10 @@
         <v>115</v>
       </c>
       <c r="H17" s="7">
-        <v>723</v>
+        <v>631</v>
       </c>
       <c r="I17" s="7">
-        <v>518633</v>
+        <v>452947</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -1934,10 +1841,10 @@
         <v>118</v>
       </c>
       <c r="M17" s="7">
-        <v>1263</v>
+        <v>1063</v>
       </c>
       <c r="N17" s="7">
-        <v>1158315</v>
+        <v>917967</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
@@ -1955,49 +1862,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>962</v>
+        <v>674</v>
       </c>
       <c r="D18" s="7">
-        <v>1036881</v>
+        <v>702475</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1511</v>
+        <v>1045</v>
       </c>
       <c r="I18" s="7">
-        <v>1057078</v>
+        <v>931528</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2473</v>
+        <v>1719</v>
       </c>
       <c r="N18" s="7">
-        <v>2093958</v>
+        <v>1634003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,49 +1915,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>14195</v>
+        <v>19455</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>15151</v>
+        <v>31100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="N19" s="7">
-        <v>29346</v>
+        <v>50554</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,151 +1966,151 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>38127</v>
+        <v>59057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7">
-        <v>56791</v>
+        <v>87785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="N20" s="7">
-        <v>94918</v>
+        <v>146842</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>188</v>
+        <v>347</v>
       </c>
       <c r="D21" s="7">
-        <v>200008</v>
+        <v>291529</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>322</v>
+        <v>591</v>
       </c>
       <c r="I21" s="7">
-        <v>339459</v>
+        <v>383636</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>510</v>
+        <v>938</v>
       </c>
       <c r="N21" s="7">
-        <v>539468</v>
+        <v>675165</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>432</v>
+        <v>558</v>
       </c>
       <c r="D22" s="7">
-        <v>474118</v>
+        <v>554769</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>631</v>
+        <v>768</v>
       </c>
       <c r="I22" s="7">
-        <v>460699</v>
+        <v>589300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>1063</v>
+        <v>1326</v>
       </c>
       <c r="N22" s="7">
-        <v>934817</v>
+        <v>1144068</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,102 +2119,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>674</v>
+        <v>1004</v>
       </c>
       <c r="D23" s="7">
-        <v>726448</v>
+        <v>924810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1045</v>
+        <v>1557</v>
       </c>
       <c r="I23" s="7">
-        <v>872100</v>
+        <v>1091821</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1719</v>
+        <v>2561</v>
       </c>
       <c r="N23" s="7">
-        <v>1598548</v>
+        <v>2016630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D24" s="7">
-        <v>21532</v>
+        <v>68786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I24" s="7">
-        <v>35002</v>
+        <v>98610</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="N24" s="7">
-        <v>56534</v>
+        <v>167395</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,28 +2223,28 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="D25" s="7">
-        <v>65120</v>
+        <v>177339</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
-        <v>140</v>
+        <v>476</v>
       </c>
       <c r="I25" s="7">
-        <v>99691</v>
+        <v>278726</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>169</v>
@@ -2346,121 +2253,121 @@
         <v>170</v>
       </c>
       <c r="M25" s="7">
-        <v>215</v>
+        <v>699</v>
       </c>
       <c r="N25" s="7">
-        <v>164812</v>
+        <v>456065</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>347</v>
+        <v>1088</v>
       </c>
       <c r="D26" s="7">
-        <v>314752</v>
+        <v>943101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
-        <v>591</v>
+        <v>1934</v>
       </c>
       <c r="I26" s="7">
-        <v>436546</v>
+        <v>1379587</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
-        <v>938</v>
+        <v>3022</v>
       </c>
       <c r="N26" s="7">
-        <v>751298</v>
+        <v>2322688</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>558</v>
+        <v>1972</v>
       </c>
       <c r="D27" s="7">
-        <v>561927</v>
+        <v>2261832</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
-        <v>768</v>
+        <v>2762</v>
       </c>
       <c r="I27" s="7">
-        <v>575839</v>
+        <v>1894936</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
-        <v>1326</v>
+        <v>4734</v>
       </c>
       <c r="N27" s="7">
-        <v>1137766</v>
+        <v>4156768</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,319 +2376,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1004</v>
+        <v>3367</v>
       </c>
       <c r="D28" s="7">
-        <v>963331</v>
+        <v>3451058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1557</v>
+        <v>5346</v>
       </c>
       <c r="I28" s="7">
-        <v>1147079</v>
+        <v>3651858</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2561</v>
+        <v>8713</v>
       </c>
       <c r="N28" s="7">
-        <v>2110410</v>
+        <v>7102916</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>84</v>
-      </c>
-      <c r="D29" s="7">
-        <v>75259</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="A29" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="7">
-        <v>174</v>
-      </c>
-      <c r="I29" s="7">
-        <v>110739</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M29" s="7">
-        <v>258</v>
-      </c>
-      <c r="N29" s="7">
-        <v>185998</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>223</v>
-      </c>
-      <c r="D30" s="7">
-        <v>194831</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="7">
-        <v>476</v>
-      </c>
-      <c r="I30" s="7">
-        <v>315068</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M30" s="7">
-        <v>699</v>
-      </c>
-      <c r="N30" s="7">
-        <v>509899</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1088</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1018225</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1934</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1422328</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3022</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2440554</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1972</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2087559</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2762</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1948495</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4734</v>
-      </c>
-      <c r="N32" s="7">
-        <v>4036054</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3367</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3375875</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5346</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3796630</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8713</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7172505</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>223</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
